--- a/data/fakecsv/dept_PINS.xlsx
+++ b/data/fakecsv/dept_PINS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="107">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,292 +40,274 @@
     <t>PINS</t>
   </si>
   <si>
-    <t>15R176HS7YPFFATJB</t>
-  </si>
-  <si>
-    <t>V8GT7XEW9PK4H4CFY</t>
-  </si>
-  <si>
-    <t>TVGA7RR39259LU0H1</t>
-  </si>
-  <si>
-    <t>P8ZMDVF83MSHL9YWW</t>
-  </si>
-  <si>
-    <t>YG4G3FG64HGMM4TRT</t>
-  </si>
-  <si>
-    <t>3YHNBNF08W729HKPA</t>
-  </si>
-  <si>
-    <t>T4SX8F5A7A1ETDY7G</t>
-  </si>
-  <si>
-    <t>Z1HNP57S7N8HZPW3U</t>
-  </si>
-  <si>
-    <t>71SG84HV8LVG2P8NR</t>
-  </si>
-  <si>
-    <t>KSGN0PX44X7X0PFRR</t>
-  </si>
-  <si>
-    <t>UAVGED8M43VHSPK9X</t>
-  </si>
-  <si>
-    <t>PYFS31116N2U8XU88</t>
-  </si>
-  <si>
-    <t>G46NB4K7X331S589A</t>
-  </si>
-  <si>
-    <t>25HETGGN36Z84JXNW</t>
-  </si>
-  <si>
-    <t>DWZ9ANU59N6CLDRBH</t>
-  </si>
-  <si>
-    <t>2VUCR72080C99FLE0</t>
-  </si>
-  <si>
-    <t>R16VBK3V34FE7U9KE</t>
-  </si>
-  <si>
-    <t>UZES7XK73SCS908SK</t>
-  </si>
-  <si>
-    <t>4XCZDWRU5E603EUSZ</t>
-  </si>
-  <si>
-    <t>D6GYZ3GF3DEUDRZBM</t>
-  </si>
-  <si>
-    <t>HU536AB96HXCYSW0W</t>
-  </si>
-  <si>
-    <t>KPR1AR6G0KSDY7L46</t>
-  </si>
-  <si>
-    <t>8CCRELD64LL2GUPLA</t>
-  </si>
-  <si>
-    <t>USKLUJB24XAYTDD0B</t>
-  </si>
-  <si>
-    <t>BDXKLPXT40AAK9YPX</t>
-  </si>
-  <si>
-    <t>8Z1R10EH66B9HGV47</t>
-  </si>
-  <si>
-    <t>Z1DRBNJNXPU7GBMW4</t>
-  </si>
-  <si>
-    <t>FXKC38KK8KA3M1J6F</t>
-  </si>
-  <si>
-    <t>FVKKE2DU5ANSUUBT5</t>
-  </si>
-  <si>
-    <t>THP2KSP77MNBV46ZS</t>
-  </si>
-  <si>
-    <t>49CX3VK5208TTRCU4</t>
-  </si>
-  <si>
-    <t>N2LHKRPY0MSSAXRST</t>
-  </si>
-  <si>
-    <t>2Z83NBNL1RXWRJU68</t>
-  </si>
-  <si>
-    <t>3ZSF3X1T6EMZ4ACM2</t>
-  </si>
-  <si>
-    <t>F3U6BUK34S25MSNRZ</t>
-  </si>
-  <si>
-    <t>1E7KJ6YM8KXKF2P4A</t>
-  </si>
-  <si>
-    <t>91GTP1SN2CGKLPC4G</t>
-  </si>
-  <si>
-    <t>3RZ97TL25UVXH1R64</t>
-  </si>
-  <si>
-    <t>M5W3VEM65V4UK10YW</t>
-  </si>
-  <si>
-    <t>Z4RX6P479H04ZAJML</t>
-  </si>
-  <si>
-    <t>MEMTK4NJ3TEFFRRKN</t>
-  </si>
-  <si>
-    <t>2P9HN12E7USVSN98H</t>
-  </si>
-  <si>
-    <t>E5RXKWTG6WW6JXBV8</t>
-  </si>
-  <si>
-    <t>B4E9WRRN9083T7CFE</t>
-  </si>
-  <si>
-    <t>WSD9KBBCXAKAX9EZ3</t>
-  </si>
-  <si>
-    <t>PTS6Y9GC4TP0MVN0K</t>
-  </si>
-  <si>
-    <t>1F5BBA415A8218KUD</t>
-  </si>
-  <si>
-    <t>JANEHDWM8YXGNDG8P</t>
-  </si>
-  <si>
-    <t>Amber Davis</t>
-  </si>
-  <si>
-    <t>Tiffany Cisneros</t>
-  </si>
-  <si>
-    <t>Matthew Brown</t>
-  </si>
-  <si>
-    <t>Stephen Baldwin</t>
-  </si>
-  <si>
-    <t>Kathy Williams</t>
-  </si>
-  <si>
-    <t>Latoya Kerr</t>
-  </si>
-  <si>
-    <t>Jasmin Romero</t>
-  </si>
-  <si>
-    <t>Katrina Chambers</t>
-  </si>
-  <si>
-    <t>Larry Ramos</t>
-  </si>
-  <si>
-    <t>Brendan Hayden</t>
-  </si>
-  <si>
-    <t>David Contreras</t>
-  </si>
-  <si>
-    <t>Spencer Meyer</t>
-  </si>
-  <si>
-    <t>Bobby Anderson</t>
-  </si>
-  <si>
-    <t>Amanda Webb</t>
-  </si>
-  <si>
-    <t>Kevin Lane</t>
-  </si>
-  <si>
-    <t>Emily Rose</t>
-  </si>
-  <si>
-    <t>Brett Beck</t>
-  </si>
-  <si>
-    <t>Rachel Robertson</t>
-  </si>
-  <si>
-    <t>William Rose</t>
-  </si>
-  <si>
-    <t>Kelly Jones</t>
-  </si>
-  <si>
-    <t>Hannah Mcclain</t>
-  </si>
-  <si>
-    <t>Amanda Sanders</t>
-  </si>
-  <si>
-    <t>Evan Pierce</t>
-  </si>
-  <si>
-    <t>Anna Sanders</t>
-  </si>
-  <si>
-    <t>Troy Ayala</t>
-  </si>
-  <si>
-    <t>David Mcclain</t>
-  </si>
-  <si>
-    <t>Tammy Woodard</t>
-  </si>
-  <si>
-    <t>Paul Campbell</t>
-  </si>
-  <si>
-    <t>Tracy Rivas</t>
-  </si>
-  <si>
-    <t>Tracy Smith</t>
-  </si>
-  <si>
-    <t>Joseph Bryant</t>
-  </si>
-  <si>
-    <t>Timothy Lewis</t>
-  </si>
-  <si>
-    <t>Jennifer Sosa</t>
-  </si>
-  <si>
-    <t>John Black</t>
-  </si>
-  <si>
-    <t>Ricardo Harvey</t>
-  </si>
-  <si>
-    <t>Rebecca Smith</t>
-  </si>
-  <si>
-    <t>Charles Brown</t>
-  </si>
-  <si>
-    <t>Dawn Bailey</t>
-  </si>
-  <si>
-    <t>Melissa Green</t>
-  </si>
-  <si>
-    <t>Kelly Ali</t>
-  </si>
-  <si>
-    <t>Kyle Tanner</t>
-  </si>
-  <si>
-    <t>Shane Lyons</t>
-  </si>
-  <si>
-    <t>Nicole Powell</t>
-  </si>
-  <si>
-    <t>Robert Robinson</t>
-  </si>
-  <si>
-    <t>Julie Navarro</t>
-  </si>
-  <si>
-    <t>Christian Sutton</t>
-  </si>
-  <si>
-    <t>David Baker</t>
-  </si>
-  <si>
-    <t>Thomas Lyons</t>
+    <t>0JH4ED9K32CE3MNWA</t>
+  </si>
+  <si>
+    <t>23RA57CA47MMJM1WV</t>
+  </si>
+  <si>
+    <t>LJBTLJCS0LY2T5H57</t>
+  </si>
+  <si>
+    <t>TXPEU00P32XBCNP7B</t>
+  </si>
+  <si>
+    <t>6AHMP30S96TWM5XB0</t>
+  </si>
+  <si>
+    <t>UAXMP6PE6X66VBYCF</t>
+  </si>
+  <si>
+    <t>S1WRHUJB49SA9CXJS</t>
+  </si>
+  <si>
+    <t>BC24F4B50BRR0VDW7</t>
+  </si>
+  <si>
+    <t>GG13ZHDN77V4RR1SZ</t>
+  </si>
+  <si>
+    <t>Z8E5EXSA1LJ6NA0GS</t>
+  </si>
+  <si>
+    <t>LBT7AWJ67ELM476WU</t>
+  </si>
+  <si>
+    <t>X8YFFKEM41BEBB517</t>
+  </si>
+  <si>
+    <t>M2WH4XHM9R2VNHZKF</t>
+  </si>
+  <si>
+    <t>KT3M6FNP9D3NHWJC0</t>
+  </si>
+  <si>
+    <t>U2ZDULV15LF10RVKT</t>
+  </si>
+  <si>
+    <t>JY2CGXCE6439YA908</t>
+  </si>
+  <si>
+    <t>LDYALMF24FM05UZXJ</t>
+  </si>
+  <si>
+    <t>SCBGMD8G69ZYCUC3A</t>
+  </si>
+  <si>
+    <t>4X19UJWE2SX2BLVLM</t>
+  </si>
+  <si>
+    <t>BSWX7XGA1K9U6EGSV</t>
+  </si>
+  <si>
+    <t>22JHZRD8374MGRG28</t>
+  </si>
+  <si>
+    <t>0H92FYEW7GLCHYHPS</t>
+  </si>
+  <si>
+    <t>FD3A14YY5637R1PPV</t>
+  </si>
+  <si>
+    <t>V6JXDPMH79SPVVSC7</t>
+  </si>
+  <si>
+    <t>ZKJYUY2U68HT0C7C5</t>
+  </si>
+  <si>
+    <t>YB71YXL73JKWLUYW6</t>
+  </si>
+  <si>
+    <t>FR3YKSDJ4PF3V65R2</t>
+  </si>
+  <si>
+    <t>YRXVSYK287U1EDXNP</t>
+  </si>
+  <si>
+    <t>PPP75JZ7036U6M7W4</t>
+  </si>
+  <si>
+    <t>8N1JT4W3XL8BS9MHT</t>
+  </si>
+  <si>
+    <t>R1AZL5MK2UX90CEEM</t>
+  </si>
+  <si>
+    <t>BKB7990C1BC3Z6BXZ</t>
+  </si>
+  <si>
+    <t>R0DLZ6K1XC0MVLRXB</t>
+  </si>
+  <si>
+    <t>6KCT07LH92A3ABV19</t>
+  </si>
+  <si>
+    <t>W5G083P622V3CGJM5</t>
+  </si>
+  <si>
+    <t>KKYC42V9XU2SNCTZD</t>
+  </si>
+  <si>
+    <t>6ZYX48FM2KVJN25YZ</t>
+  </si>
+  <si>
+    <t>2GNT4NND57YW2HFUD</t>
+  </si>
+  <si>
+    <t>SUDVEZCW16BXG3AUN</t>
+  </si>
+  <si>
+    <t>V26J22FV0HUTEGXZ1</t>
+  </si>
+  <si>
+    <t>3ATS7G3C8KHFWK4AY</t>
+  </si>
+  <si>
+    <t>TS9DD0VJ2XZSXCS24</t>
+  </si>
+  <si>
+    <t>4ZLFGT3A0ZAC95NRD</t>
+  </si>
+  <si>
+    <t>BEK6UEBGX424X519D</t>
+  </si>
+  <si>
+    <t>Y4S0Y1H01WF63KPAL</t>
+  </si>
+  <si>
+    <t>Jeremy Bradford</t>
+  </si>
+  <si>
+    <t>Tammy Jackson</t>
+  </si>
+  <si>
+    <t>Richard Benitez</t>
+  </si>
+  <si>
+    <t>Michael Russell</t>
+  </si>
+  <si>
+    <t>Ms. Amanda Morris</t>
+  </si>
+  <si>
+    <t>Emily Lee</t>
+  </si>
+  <si>
+    <t>Edward Patel</t>
+  </si>
+  <si>
+    <t>Sean Schultz</t>
+  </si>
+  <si>
+    <t>Julie Wood</t>
+  </si>
+  <si>
+    <t>Stacy Brown</t>
+  </si>
+  <si>
+    <t>John Hahn</t>
+  </si>
+  <si>
+    <t>Jason Reed</t>
+  </si>
+  <si>
+    <t>Ian Myers</t>
+  </si>
+  <si>
+    <t>Johnny Le</t>
+  </si>
+  <si>
+    <t>Nicholas Alvarado</t>
+  </si>
+  <si>
+    <t>Jamie Knight</t>
+  </si>
+  <si>
+    <t>Margaret Donaldson</t>
+  </si>
+  <si>
+    <t>Kevin Smith</t>
+  </si>
+  <si>
+    <t>Deborah Turner</t>
+  </si>
+  <si>
+    <t>Robert Benitez</t>
+  </si>
+  <si>
+    <t>Carl Hansen</t>
+  </si>
+  <si>
+    <t>Mark Holmes</t>
+  </si>
+  <si>
+    <t>Denise Flores</t>
+  </si>
+  <si>
+    <t>Anthony Thomas</t>
+  </si>
+  <si>
+    <t>Sarah Hayes</t>
+  </si>
+  <si>
+    <t>Christopher Keith</t>
+  </si>
+  <si>
+    <t>David Fields</t>
+  </si>
+  <si>
+    <t>Noah Nelson</t>
+  </si>
+  <si>
+    <t>Timothy Cox</t>
+  </si>
+  <si>
+    <t>Michael Hensley</t>
+  </si>
+  <si>
+    <t>Danielle Stephenson</t>
+  </si>
+  <si>
+    <t>Leslie Walsh DVM</t>
+  </si>
+  <si>
+    <t>Jason Mathews</t>
+  </si>
+  <si>
+    <t>Erin Jones</t>
+  </si>
+  <si>
+    <t>Jeffrey Castro</t>
+  </si>
+  <si>
+    <t>Benjamin Pacheco</t>
+  </si>
+  <si>
+    <t>Karen Crawford</t>
+  </si>
+  <si>
+    <t>Sarah Adams</t>
+  </si>
+  <si>
+    <t>Marcus Hill</t>
+  </si>
+  <si>
+    <t>Jonathon Gomez</t>
+  </si>
+  <si>
+    <t>Frank Flores</t>
+  </si>
+  <si>
+    <t>Jacqueline Morrow</t>
+  </si>
+  <si>
+    <t>Janice Reynolds</t>
+  </si>
+  <si>
+    <t>Dylan Potter</t>
+  </si>
+  <si>
+    <t>Pamela Alexander</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -710,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F233"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,10 +729,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -764,10 +746,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -781,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -798,10 +780,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -815,10 +797,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -832,10 +814,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -846,13 +828,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,13 +845,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -880,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -900,10 +882,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -914,13 +896,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -931,13 +913,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -951,10 +933,10 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -968,10 +950,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -982,13 +964,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -999,13 +981,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1016,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1033,13 +1015,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1052,10 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1069,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1103,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1135,13 +1117,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1152,13 +1134,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1169,13 +1151,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1171,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1188,10 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1205,10 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1222,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1239,10 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1256,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1288,13 +1270,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1305,13 +1287,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1322,13 +1304,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1339,13 +1321,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1356,13 +1338,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1373,13 +1355,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1390,13 +1372,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1407,13 +1389,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1424,13 +1406,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1441,13 +1423,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1458,13 +1440,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
         <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1475,13 +1457,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1492,13 +1474,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1509,13 +1491,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1526,13 +1508,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1543,13 +1525,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1563,10 +1545,10 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1577,13 +1559,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1594,13 +1576,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1611,13 +1593,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1628,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1645,13 +1627,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1662,13 +1644,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1679,13 +1661,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1699,10 +1681,10 @@
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1716,10 +1698,10 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1733,10 +1715,10 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1750,10 +1732,10 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1767,10 +1749,10 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1784,10 +1766,10 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1801,10 +1783,10 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1818,10 +1800,10 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1835,10 +1817,10 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1852,10 +1834,10 @@
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1869,10 +1851,10 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1883,13 +1865,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1900,13 +1882,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1917,13 +1899,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1934,13 +1916,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1951,13 +1933,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1968,13 +1950,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1985,13 +1967,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2002,13 +1984,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2022,10 +2004,10 @@
         <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2036,13 +2018,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2056,10 +2038,10 @@
         <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2073,10 +2055,10 @@
         <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2090,10 +2072,10 @@
         <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2104,13 +2086,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2121,13 +2103,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2138,13 +2120,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E84" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2155,13 +2137,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E85" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2172,13 +2154,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E86" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2189,13 +2171,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2206,13 +2188,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E88" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2223,13 +2205,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E89" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2243,10 +2225,10 @@
         <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2257,13 +2239,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2274,13 +2256,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2291,13 +2273,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2311,10 +2293,10 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E94" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2328,10 +2310,10 @@
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E95" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2345,10 +2327,10 @@
         <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E96" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2359,13 +2341,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2376,13 +2358,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E98" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2393,13 +2375,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E99" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2410,13 +2392,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E100" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2427,13 +2409,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E101" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2444,13 +2426,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2461,13 +2443,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2478,13 +2460,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D104" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E104" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2495,13 +2477,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D105" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E105" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2512,13 +2494,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D106" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E106" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2529,13 +2511,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D107" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E107" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2546,13 +2528,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D108" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E108" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2563,13 +2545,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D109" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E109" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2580,13 +2562,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E110" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2597,13 +2579,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E111" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2614,13 +2596,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E112" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2631,13 +2613,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E113" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2648,13 +2630,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E114" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2665,13 +2647,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E115" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2682,13 +2664,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E116" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2699,13 +2681,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E117" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2716,13 +2698,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D118" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E118" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2733,13 +2715,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D119" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E119" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2750,13 +2732,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D120" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E120" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2767,13 +2749,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D121" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E121" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2784,13 +2766,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D122" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E122" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2801,13 +2783,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D123" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E123" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2818,13 +2800,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D124" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E124" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2835,13 +2817,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D125" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E125" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2852,13 +2834,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E126" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2869,13 +2851,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D127" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E127" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2886,13 +2868,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D128" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E128" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2903,13 +2885,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E129" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2920,13 +2902,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D130" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E130" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2937,13 +2919,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D131" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E131" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2954,13 +2936,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D132" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E132" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2971,13 +2953,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D133" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E133" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2988,13 +2970,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D134" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E134" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3005,13 +2987,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D135" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E135" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3022,13 +3004,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D136" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E136" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3039,13 +3021,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D137" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E137" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3056,13 +3038,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D138" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E138" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3073,13 +3055,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D139" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E139" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3090,13 +3072,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D140" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E140" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3107,13 +3089,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D141" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E141" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3124,13 +3106,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D142" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E142" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3141,13 +3123,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D143" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E143" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3158,13 +3140,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D144" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E144" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3175,13 +3157,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D145" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E145" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3192,13 +3174,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D146" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E146" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3209,13 +3191,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D147" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E147" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3226,13 +3208,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D148" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E148" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3243,13 +3225,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D149" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E149" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3260,13 +3242,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D150" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E150" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3277,13 +3259,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E151" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3294,13 +3276,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D152" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E152" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3311,13 +3293,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D153" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E153" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3331,10 +3313,10 @@
         <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E154" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3348,10 +3330,10 @@
         <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E155" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3362,13 +3344,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D156" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E156" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3379,13 +3361,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E157" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3396,13 +3378,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D158" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E158" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3413,13 +3395,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D159" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E159" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3430,13 +3412,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D160" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E160" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3447,13 +3429,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D161" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E161" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3464,13 +3446,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D162" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E162" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3481,13 +3463,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D163" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E163" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3498,13 +3480,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D164" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E164" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3515,13 +3497,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D165" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E165" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3532,13 +3514,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D166" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E166" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3549,13 +3531,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E167" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3566,13 +3548,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D168" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E168" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3583,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D169" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E169" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3600,13 +3582,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D170" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E170" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3617,13 +3599,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D171" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E171" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3634,13 +3616,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D172" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E172" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3651,13 +3633,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D173" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E173" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3668,13 +3650,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D174" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E174" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3685,13 +3667,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D175" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E175" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3702,13 +3684,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D176" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E176" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3719,13 +3701,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D177" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E177" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3736,13 +3718,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D178" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E178" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3753,13 +3735,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D179" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E179" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3770,13 +3752,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D180" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E180" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3787,13 +3769,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D181" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E181" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3804,13 +3786,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D182" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E182" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3821,13 +3803,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D183" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E183" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3838,13 +3820,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D184" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E184" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3855,13 +3837,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D185" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E185" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3872,13 +3854,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D186" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E186" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3889,13 +3871,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D187" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E187" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3906,13 +3888,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D188" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E188" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3923,13 +3905,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D189" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E189" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3940,13 +3922,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D190" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E190" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3957,13 +3939,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D191" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E191" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3974,13 +3956,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D192" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E192" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3991,13 +3973,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D193" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E193" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4008,13 +3990,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D194" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E194" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4025,13 +4007,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D195" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E195" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4042,13 +4024,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D196" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E196" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4059,13 +4041,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D197" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E197" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4076,13 +4058,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D198" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E198" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4093,13 +4075,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D199" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E199" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4110,13 +4092,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D200" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E200" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4127,13 +4109,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D201" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E201" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4144,13 +4126,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D202" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E202" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4161,13 +4143,13 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D203" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E203" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4178,13 +4160,13 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D204" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E204" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4195,13 +4177,13 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D205" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E205" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4212,13 +4194,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D206" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E206" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4229,10 +4211,10 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D207" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E207" t="s">
         <v>104</v>
@@ -4246,10 +4228,10 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D208" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E208" t="s">
         <v>105</v>
@@ -4263,13 +4245,13 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D209" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E209" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4280,13 +4262,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D210" t="s">
+        <v>92</v>
+      </c>
+      <c r="E210" t="s">
         <v>99</v>
-      </c>
-      <c r="E210" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4297,13 +4279,13 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D211" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E211" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4314,13 +4296,13 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D212" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E212" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4331,13 +4313,13 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D213" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E213" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4348,13 +4330,13 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D214" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E214" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4365,13 +4347,13 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D215" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E215" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4382,13 +4364,13 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D216" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E216" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4399,13 +4381,13 @@
         <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D217" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E217" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4416,13 +4398,13 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D218" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E218" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4433,13 +4415,13 @@
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D219" t="s">
+        <v>94</v>
+      </c>
+      <c r="E219" t="s">
         <v>101</v>
-      </c>
-      <c r="E219" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4450,13 +4432,13 @@
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D220" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E220" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4467,13 +4449,13 @@
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D221" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E221" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4484,10 +4466,10 @@
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D222" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E222" t="s">
         <v>104</v>
@@ -4501,13 +4483,13 @@
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D223" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E223" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4518,13 +4500,13 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D224" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E224" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4535,13 +4517,13 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D225" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E225" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4552,13 +4534,13 @@
         <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D226" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E226" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4569,13 +4551,13 @@
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D227" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E227" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4586,13 +4568,13 @@
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D228" t="s">
+        <v>95</v>
+      </c>
+      <c r="E228" t="s">
         <v>103</v>
-      </c>
-      <c r="E228" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4603,13 +4585,13 @@
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D229" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E229" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4620,13 +4602,13 @@
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D230" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E230" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4637,13 +4619,13 @@
         <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D231" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E231" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4654,13 +4636,13 @@
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D232" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E232" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4671,13 +4653,166 @@
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D233" t="s">
+        <v>96</v>
+      </c>
+      <c r="E233" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>51</v>
+      </c>
+      <c r="D234" t="s">
+        <v>96</v>
+      </c>
+      <c r="E234" t="s">
         <v>103</v>
       </c>
-      <c r="E233" t="s">
-        <v>110</v>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>51</v>
+      </c>
+      <c r="D235" t="s">
+        <v>96</v>
+      </c>
+      <c r="E235" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>51</v>
+      </c>
+      <c r="D236" t="s">
+        <v>96</v>
+      </c>
+      <c r="E236" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>52</v>
+      </c>
+      <c r="D237" t="s">
+        <v>97</v>
+      </c>
+      <c r="E237" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
+        <v>52</v>
+      </c>
+      <c r="D238" t="s">
+        <v>97</v>
+      </c>
+      <c r="E238" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>52</v>
+      </c>
+      <c r="D239" t="s">
+        <v>97</v>
+      </c>
+      <c r="E239" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>52</v>
+      </c>
+      <c r="D240" t="s">
+        <v>97</v>
+      </c>
+      <c r="E240" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>52</v>
+      </c>
+      <c r="D241" t="s">
+        <v>97</v>
+      </c>
+      <c r="E241" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" t="s">
+        <v>52</v>
+      </c>
+      <c r="D242" t="s">
+        <v>97</v>
+      </c>
+      <c r="E242" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
